--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_adr4_197.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_adr4_197.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1572"/>
+  <dimension ref="A1:N1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.299551248550415</v>
+        <v>1.662452936172485</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01022577285766602</v>
+        <v>0.01542186737060547</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1355180740356445</v>
+        <v>0.2427217960357666</v>
       </c>
     </row>
     <row r="8">
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="B1566" t="n">
-        <v>0.0005250385623899349</v>
+        <v>0.0005248174627143167</v>
       </c>
     </row>
     <row r="1567">
@@ -11513,116 +11513,126 @@
         </is>
       </c>
       <c r="B1567" t="n">
-        <v>64876.79134422499</v>
+        <v>65508.59134422498</v>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1568" t="n">
-        <v>52</v>
+        <v>0.9968299894173405</v>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1569" t="n">
-        <v>1255</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1570" t="n">
-        <v>8</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1571" t="n">
-        <v>1.509074211120605</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>2.011725187301636</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1572" t="inlineStr">
+      <c r="B1573" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1572" t="inlineStr">
+      <c r="C1573" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1572" t="inlineStr">
+      <c r="D1573" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1572" t="inlineStr">
+      <c r="E1573" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1572" t="inlineStr">
+      <c r="F1573" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1572" t="inlineStr">
+      <c r="G1573" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
+      <c r="H1573" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1572" t="inlineStr">
+      <c r="I1573" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1572" t="inlineStr">
+      <c r="J1573" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1572" t="inlineStr">
+      <c r="K1573" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1572" t="inlineStr">
+      <c r="L1573" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1572" t="inlineStr">
+      <c r="M1573" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1572" t="inlineStr">
+      <c r="N1573" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_adr4_197.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_adr4_197.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.662452936172485</v>
+        <v>0.002868890762329102</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01542186737060547</v>
+        <v>0.000659942626953125</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2427217960357666</v>
+        <v>0.2505230903625488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 3), (0, 3), (3, 1), (2, 2), (2, 0), (2, 3), (2, 1), (0, 0), (1, 2), (1, 0), (0, 1), (0, 2), (1, 1)]</t>
+          <t>[[3, 3], [0, 3], [3, 1], [2, 2], [2, 0], [2, 3], [2, 1], [0, 0], [1, 2], [1, 0], [0, 1], [0, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>[(3, 3), (1, 2), (1, 0), (2, 1), (0, 0), (2, 3), (0, 1), (0, 3), (3, 2), (1, 3), (1, 1), (0, 2), (2, 2)]</t>
+          <t>[[3, 3], [1, 2], [1, 0], [2, 1], [0, 0], [2, 3], [0, 1], [0, 3], [3, 2], [1, 3], [1, 1], [0, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[(3, 3), (1, 0), (3, 1), (0, 2), (2, 3), (0, 3), (0, 1), (2, 2), (1, 3), (2, 0), (2, 1), (1, 1), (1, 2)]</t>
+          <t>[[3, 3], [1, 0], [3, 1], [0, 2], [2, 3], [0, 3], [0, 1], [2, 2], [1, 3], [2, 0], [2, 1], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>[(3, 3), (0, 3), (0, 2), (3, 0), (2, 3), (2, 2), (0, 1), (2, 0), (0, 0), (1, 0), (1, 1), (2, 1), (1, 2)]</t>
+          <t>[[3, 3], [0, 3], [0, 2], [3, 0], [2, 3], [2, 2], [0, 1], [2, 0], [0, 0], [1, 0], [1, 1], [2, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>[(3, 3), (0, 3), (3, 0), (2, 0), (0, 1), (1, 0), (2, 3), (3, 1), (2, 2), (3, 2), (1, 2), (1, 1), (2, 1)]</t>
+          <t>[[3, 3], [0, 3], [3, 0], [2, 0], [0, 1], [1, 0], [2, 3], [3, 1], [2, 2], [3, 2], [1, 2], [1, 1], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (3, 0), (0, 3), (2, 1), (2, 0), (0, 1), (0, 2), (2, 2), (1, 3), (1, 1), (1, 0), (1, 2)]</t>
+          <t>[[3, 3], [2, 3], [3, 0], [0, 3], [2, 1], [2, 0], [0, 1], [0, 2], [2, 2], [1, 3], [1, 1], [1, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (0, 3), (3, 0), (2, 2), (2, 0), (1, 2), (1, 0), (1, 1), (0, 1), (0, 2), (0, 0), (2, 1)]</t>
+          <t>[[3, 3], [2, 3], [0, 3], [3, 0], [2, 2], [2, 0], [1, 2], [1, 0], [1, 1], [0, 1], [0, 2], [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 3), (0, 3), (3, 0), (2, 0), (2, 2), (1, 1), (1, 2), (1, 0), (0, 2), (0, 0), (0, 1), (2, 1)]</t>
+          <t>[[1, 3], [2, 3], [0, 3], [3, 0], [2, 0], [2, 2], [1, 1], [1, 2], [1, 0], [0, 2], [0, 0], [0, 1], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="B1572" t="n">
-        <v>2.011725187301636</v>
+        <v>0.3251147270202637</v>
       </c>
     </row>
     <row r="1573">
